--- a/mf-intelligence/data/separated_files/nippon/Nippon India Multi Asset Allocation Fund/Nippon India Multi Asset Allocation Fund_Sep_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Multi Asset Allocation Fund/Nippon India Multi Asset Allocation Fund_Sep_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3391,623 +3391,629 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>14740454USD</t>
+          <t>POWF534</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>US4642863926</t>
+          <t>INE134E08ND3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>iShares MSCI World ETF</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>7.27% Power Finance Corporation Limited**</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CRISIL AAA</t>
+        </is>
+      </c>
       <c r="E93" t="n">
-        <v>411780</v>
+        <v>5000</v>
       </c>
       <c r="F93" t="n">
-        <v>66383.59</v>
+        <v>5060.06</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0856</v>
-      </c>
-      <c r="H93" t="inlineStr"/>
+        <v>0.0065</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0702</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GOI5081</t>
+          <t>TCHE76</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>IN0020230036</t>
+          <t>INE092A08071</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7.17% Government of India</t>
+          <t>7.81% Tata Chemicals Limited**</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>9500000</v>
+        <v>5000</v>
       </c>
       <c r="F94" t="n">
-        <v>9844.84</v>
+        <v>5037.58</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0127</v>
+        <v>0.0065</v>
       </c>
       <c r="H94" t="n">
-        <v>0.063365</v>
+        <v>0.073522</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GOI5713</t>
+          <t>NCCL50</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IN0020240019</t>
+          <t>INE118D08078</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>7.1% Government of India</t>
+          <t>7.7% Nuvoco Vistas Corporation Limited**</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7500000</v>
+        <v>5000</v>
       </c>
       <c r="F95" t="n">
-        <v>7719.23</v>
+        <v>4992.2</v>
       </c>
       <c r="G95" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0064</v>
       </c>
       <c r="H95" t="n">
-        <v>0.067552</v>
+        <v>0.077571</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GOI6997</t>
+          <t>LTMR58</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IN2920250163</t>
+          <t>INE128M08094</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7.49% State Government Securities</t>
+          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited**</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA(CE)</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>7500000</v>
+        <v>3500</v>
       </c>
       <c r="F96" t="n">
-        <v>7583.11</v>
+        <v>3486.41</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0098</v>
+        <v>0.0045</v>
       </c>
       <c r="H96" t="n">
-        <v>0.07463599999999999</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GOI4976</t>
+          <t>NBAR838</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IN0020220151</t>
+          <t>INE261F08EO7</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7.26% Government of India</t>
+          <t>7.48% National Bank For Agriculture and Rural Development</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6000000</v>
+        <v>3000</v>
       </c>
       <c r="F97" t="n">
-        <v>6222.17</v>
+        <v>3051.96</v>
       </c>
       <c r="G97" t="n">
-        <v>0.008</v>
+        <v>0.0039</v>
       </c>
       <c r="H97" t="n">
-        <v>0.067228</v>
+        <v>0.068096</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GOI6156</t>
+          <t>AFPL162</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>IN0020240126</t>
+          <t>INE949L08459</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>6.79% Government of India</t>
+          <t>9.2% AU Small Finance Bank Limited**</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6000000</v>
+        <v>3000</v>
       </c>
       <c r="F98" t="n">
-        <v>6059.38</v>
+        <v>3005.3</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0078</v>
+        <v>0.0039</v>
       </c>
       <c r="H98" t="n">
-        <v>0.067524</v>
+        <v>0.09114999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GOI4462</t>
+          <t>ICHF234</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>IN1520220022</t>
+          <t>INE071G07736</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>7.8% State Government Securities</t>
+          <t>7.94% ICICI Home Finance Company Limited**</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5000000</v>
+        <v>2500</v>
       </c>
       <c r="F99" t="n">
-        <v>5199.26</v>
+        <v>2560.44</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0067</v>
+        <v>0.0033</v>
       </c>
       <c r="H99" t="n">
-        <v>0.071618</v>
+        <v>0.07215000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GOI5833</t>
+          <t>LICH671</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IN0020240076</t>
+          <t>INE115A07QM6</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>7.02% Government of India</t>
+          <t>7.77% LIC Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5000000</v>
+        <v>250</v>
       </c>
       <c r="F100" t="n">
-        <v>5140.01</v>
+        <v>2550.16</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0066</v>
+        <v>0.0033</v>
       </c>
       <c r="H100" t="n">
-        <v>0.065271</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GOI3025</t>
+          <t>TFSI48</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IN2920200622</t>
+          <t>INE692Q07548</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>6.85% State Government Securities</t>
+          <t>8.06% Toyota Financial Services India Limited**</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="F101" t="n">
-        <v>992.26</v>
+        <v>2534.5</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0013</v>
+        <v>0.0033</v>
       </c>
       <c r="H101" t="n">
-        <v>0.071468</v>
+        <v>0.073952</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>POWF534</t>
+          <t>IIFC67</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INE134E08ND3</t>
+          <t>INE787H08154</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>7.27% Power Finance Corporation Limited**</t>
+          <t>7.47% India Infrastructure Fin Co Ltd**</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F102" t="n">
-        <v>5060.06</v>
+        <v>2533.47</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0065</v>
+        <v>0.0033</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0702</v>
+        <v>0.067525</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TCHE76</t>
+          <t>SIDB519</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INE092A08071</t>
+          <t>INE556F08KI9</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7.81% Tata Chemicals Limited**</t>
+          <t>7.44% Small Industries Dev Bank of India</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F103" t="n">
-        <v>5037.58</v>
+        <v>2517.54</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0065</v>
+        <v>0.0032</v>
       </c>
       <c r="H103" t="n">
-        <v>0.073522</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NCCL50</t>
+          <t>NBAR701</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INE118D08078</t>
+          <t>INE261F08DX0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>7.7% Nuvoco Vistas Corporation Limited**</t>
+          <t>7.58% National Bank For Agriculture and Rural Development</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F104" t="n">
-        <v>4992.2</v>
+        <v>2515.91</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0064</v>
+        <v>0.0032</v>
       </c>
       <c r="H104" t="n">
-        <v>0.077571</v>
+        <v>0.06685000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LTMR58</t>
+          <t>HEHO24</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INE128M08094</t>
+          <t>INE800X07071</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited**</t>
+          <t>8.5% Hero Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CRISIL AAA(CE)</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="F105" t="n">
-        <v>3486.41</v>
+        <v>2510.06</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0045</v>
+        <v>0.0032</v>
       </c>
       <c r="H105" t="n">
-        <v>0.076</v>
+        <v>0.082012</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NBAR838</t>
+          <t>GHFL46</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INE261F08EO7</t>
+          <t>INE02JD07041</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>7.48% National Bank For Agriculture and Rural Development</t>
+          <t>8.4% Godrej Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F106" t="n">
-        <v>3051.96</v>
+        <v>1021.03</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0039</v>
+        <v>0.0013</v>
       </c>
       <c r="H106" t="n">
-        <v>0.068096</v>
+        <v>0.073293</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>AFPL162</t>
+          <t>NBAR633</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INE949L08459</t>
+          <t>INE261F08DA8</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>9.2% AU Small Finance Bank Limited**</t>
+          <t>6.85% National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3000</v>
+        <v>70</v>
       </c>
       <c r="F107" t="n">
-        <v>3005.3</v>
+        <v>697.48</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0039</v>
+        <v>0.0009</v>
       </c>
       <c r="H107" t="n">
-        <v>0.09114999999999999</v>
+        <v>0.07049999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ICHF234</t>
+          <t>NBAR695</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INE071G07736</t>
+          <t>INE261F08DV4</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>7.94% ICICI Home Finance Company Limited**</t>
+          <t>7.62% National Bank For Agriculture and Rural Development</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="F108" t="n">
-        <v>2560.44</v>
+        <v>508.17</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0033</v>
+        <v>0.0007</v>
       </c>
       <c r="H108" t="n">
-        <v>0.07215000000000001</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LICH671</t>
+          <t>JTMT20</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INE115A07QM6</t>
+          <t>INE02PE08036</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>7.77% LIC Housing Finance Limited**</t>
+          <t>JTPM Metal Traders Limited**</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="F109" t="n">
-        <v>2550.16</v>
+        <v>5007.99</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0033</v>
+        <v>0.0065</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0696</v>
+        <v>0.08458400000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TFSI48</t>
+          <t>NHIT23</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INE692Q07548</t>
+          <t>INE0H7R07066</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>8.06% Toyota Financial Services India Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2500</v>
+        <v>1750</v>
       </c>
       <c r="F110" t="n">
-        <v>2534.5</v>
+        <v>937.08</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0033</v>
+        <v>0.0012</v>
       </c>
       <c r="H110" t="n">
-        <v>0.073952</v>
+        <v>0.07785</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IIFC67</t>
+          <t>NHIT24</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INE787H08154</t>
+          <t>INE0H7R07058</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>7.47% India Infrastructure Fin Co Ltd**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4016,571 +4022,119 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2500</v>
+        <v>1750</v>
       </c>
       <c r="F111" t="n">
-        <v>2533.47</v>
+        <v>870.91</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0033</v>
+        <v>0.0011</v>
       </c>
       <c r="H111" t="n">
-        <v>0.067525</v>
+        <v>0.077649</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SIDB519</t>
+          <t>LIGS22</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INE556F08KI9</t>
+          <t>INE1U3R15011</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>7.44% Small Industries Dev Bank of India</t>
+          <t>Liquid Gold Series**</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AAA(SO)</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>2500</v>
+        <v>119.999998</v>
       </c>
       <c r="F112" t="n">
-        <v>2517.54</v>
+        <v>2684.53</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0032</v>
+        <v>0.0035</v>
       </c>
       <c r="H112" t="n">
-        <v>0.066</v>
+        <v>0.09098050000000001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NBAR701</t>
+          <t>PUBA1115</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INE261F08DX0</t>
+          <t>INE160A16SN7</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>7.58% National Bank For Agriculture and Rural Development</t>
+          <t>Punjab National Bank</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE A1+</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F113" t="n">
-        <v>2515.91</v>
+        <v>5000</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0032</v>
+        <v>0.0064</v>
       </c>
       <c r="H113" t="n">
-        <v>0.06685000000000001</v>
+        <v>0.055488</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HEHO24</t>
+          <t>NBAR810</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INE800X07071</t>
+          <t>INE261F16900</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>8.5% Hero Housing Finance Limited**</t>
+          <t>National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F114" t="n">
-        <v>2510.06</v>
+        <v>4907.03</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0032</v>
+        <v>0.0063</v>
       </c>
       <c r="H114" t="n">
-        <v>0.082012</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>GHFL46</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>INE02JD07041</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>8.4% Godrej Housing Finance Limited**</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>CRISIL AA+</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1021.03</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.073293</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>NBAR633</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>INE261F08DA8</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>6.85% National Bank For Agriculture and Rural Development**</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>ICRA AAA</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>70</v>
-      </c>
-      <c r="F116" t="n">
-        <v>697.48</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.07049999999999999</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>NBAR695</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>INE261F08DV4</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>7.62% National Bank For Agriculture and Rural Development</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>500</v>
-      </c>
-      <c r="F117" t="n">
-        <v>508.17</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.06809999999999999</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>JTMT20</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>INE02PE08036</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>JTPM Metal Traders Limited**</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F118" t="n">
-        <v>5007.99</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.08458400000000001</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>NHIT23</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>INE0H7R07066</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F119" t="n">
-        <v>937.08</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.07785</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>NHIT24</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>INE0H7R07058</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F120" t="n">
-        <v>870.91</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.077649</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>LIGS22</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>INE1U3R15011</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Liquid Gold Series**</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>CRISIL AAA(SO)</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>119.999998</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2684.53</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.09098050000000001</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>PUBA1115</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>INE160A16SN7</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Punjab National Bank</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>CARE A1+</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F122" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.055488</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>NBAR810</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>INE261F16900</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>National Bank For Agriculture and Rural Development**</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F123" t="n">
-        <v>4907.03</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="H123" t="n">
         <v>0.0612</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>BMGB51ME</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>INF204KB17I5</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Nippon India ETF Gold Bees</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="n">
-        <v>91266971</v>
-      </c>
-      <c r="F124" t="n">
-        <v>87479.39</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.1127</v>
-      </c>
-      <c r="H124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>149758</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>INF204KC1402</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Nippon India Silver ETF</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="n">
-        <v>18869201</v>
-      </c>
-      <c r="F125" t="n">
-        <v>25675.32</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.0331</v>
-      </c>
-      <c r="H125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Long/Short</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Quantity.</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Market/Fair Value (Rs. in Lacs).</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> % to NAV.</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>FUTCOM_SILVER_05/12/2025</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>3900</v>
-      </c>
-      <c r="F127" t="n">
-        <v>5543.66</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="H127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr"/>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>FUTCOM_GOLD_05/12/2025</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F128" t="n">
-        <v>4690.6</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
